--- a/Assignment_5/User credentials.xlsx
+++ b/Assignment_5/User credentials.xlsx
@@ -1,307 +1,235 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6830"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="18600" windowHeight="6830" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Product Details" sheetId="3" r:id="rId3"/>
+    <sheet name="User Details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Product Details" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Order Details" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
-  <si>
-    <t>User ID</t>
-  </si>
-  <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>standard_user</t>
-  </si>
-  <si>
-    <t>secret_sauce</t>
-  </si>
-  <si>
-    <t>locked_out_user</t>
-  </si>
-  <si>
-    <t>problem_user</t>
-  </si>
-  <si>
-    <t>performance_glitch_user</t>
-  </si>
-  <si>
-    <t>Login Message</t>
-  </si>
-  <si>
-    <t>Epic sadface: Sorry, this user has been locked out.</t>
-  </si>
-  <si>
-    <t>Product ID</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Sauce Labs Backpack</t>
-  </si>
-  <si>
-    <t>carry.allTheThings() with the sleek, streamlined Sly Pack that melds uncompromising style with unequaled laptop and tablet protection.</t>
-  </si>
-  <si>
-    <t>$29.99</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Sauce Labs Bike Light</t>
-  </si>
-  <si>
-    <t>A red light isn't the desired state in testing but it sure helps when riding your bike at night. Water-resistant with 3 lighting modes, 1 AAA battery included.</t>
-  </si>
-  <si>
-    <t>$9.99</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Sauce Labs Bolt T-Shirt</t>
-  </si>
-  <si>
-    <t>Get your testing superhero on with the Sauce Labs bolt T-shirt. From American Apparel, 100% ringspun combed cotton, heather gray with red bolt.</t>
-  </si>
-  <si>
-    <t>$15.99</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Sauce Labs Fleece Jacket</t>
-  </si>
-  <si>
-    <t>It's not every day that you come across a midweight quarter-zip fleece jacket capable of handling everything from a relaxing day outdoors to a busy day at the office.</t>
-  </si>
-  <si>
-    <t>$49.99</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Sauce Labs Onesie</t>
-  </si>
-  <si>
-    <t>Rib snap infant onesie for the junior automation engineer in development. Reinforced 3-snap bottom closure, two-needle hemmed sleeved and bottom won't unravel.</t>
-  </si>
-  <si>
-    <t>$7.99</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Test.allTheThings() T-Shirt (Red)</t>
-  </si>
-  <si>
-    <t>This classic Sauce Labs t-shirt is perfect to wear when cozying up to your keyboard to automate a few tests. Super-soft and comfy ringspun combed cotton.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
+  <fonts count="27">
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -493,12 +421,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -616,155 +559,158 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -820,11 +766,74 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1111,236 +1120,461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>User ID</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>User Name</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>standard_user</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>secret_sauce</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>locked_out_user</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>secret_sauce</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>problem_user</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>secret_sauce</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>performance_glitch_user</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>secret_sauce</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>User ID</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Login Message</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Epic sadface: Sorry, this user has been locked out.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Product ID</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Product Name</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sauce Labs Backpack</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>carry.allTheThings() with the sleek, streamlined Sly Pack that melds uncompromising style with unequaled laptop and tablet protection.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$29.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sauce Labs Bike Light</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A red light isn't the desired state in testing but it sure helps when riding your bike at night. Water-resistant with 3 lighting modes, 1 AAA battery included.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$9.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sauce Labs Bolt T-Shirt</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Get your testing superhero on with the Sauce Labs bolt T-shirt. From American Apparel, 100% ringspun combed cotton, heather gray with red bolt.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$15.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sauce Labs Fleece Jacket</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>It's not every day that you come across a midweight quarter-zip fleece jacket capable of handling everything from a relaxing day outdoors to a busy day at the office.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sauce Labs Onesie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rib snap infant onesie for the junior automation engineer in development. Reinforced 3-snap bottom closure, two-needle hemmed sleeved and bottom won't unravel.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$7.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Test.allTheThings() T-Shirt (Red)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>This classic Sauce Labs t-shirt is perfect to wear when cozying up to your keyboard to automate a few tests. Super-soft and comfy ringspun combed cotton.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$15.99</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>User Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Product Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Price</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Order Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>standard_user</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Sauce Labs Backpack</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$29.99 </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>standard_user</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Sauce Labs Bolt T-Shirt</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$15.99 </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>problem_user</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Sauce Labs Bike Light</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$9.99 </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Failure</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>